--- a/text.xlsx
+++ b/text.xlsx
@@ -21,6 +21,36 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>월</t>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+  </si>
+  <si>
+    <t>수</t>
+  </si>
+  <si>
+    <t>목</t>
+  </si>
+  <si>
+    <t>금</t>
+  </si>
+  <si>
+    <t>토</t>
+  </si>
+  <si>
+    <t>일</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,66 +378,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>